--- a/Examples/Data/Articles/SettingPivotTableOption/output.xlsx
+++ b/Examples/Data/Articles/SettingPivotTableOption/output.xlsx
@@ -7,21 +7,21 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="PivotTable" sheetId="2" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Evaluation Warning" sheetId="3" r:id="rId3"/>
-    <sheet name="Evaluation Warning (0)" sheetId="4" r:id="rId4"/>
+    <sheet name="PivotTable" sheetId="2" r:id="rId3"/>
+    <sheet name="Data" sheetId="1" r:id="rId4"/>
+    <sheet name="Evaluation Warning" sheetId="3" r:id="rId5"/>
+    <sheet name="Evaluation Warning (1)" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="48">
   <si>
     <t>Employee</t>
   </si>
@@ -158,7 +158,13 @@
     <t>Sum of Sale</t>
   </si>
   <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2016 Aspose Pty Ltd.</t>
   </si>
 </sst>
 </file>
@@ -172,9 +178,15 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -223,7 +235,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF993300"/>
+      <color rgb="FF000080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -241,15 +259,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000080"/>
+      <color rgb="FF993300"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -506,29 +518,29 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
@@ -539,81 +551,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -622,19 +634,20 @@
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
@@ -720,7 +733,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="3" refreshedVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F30" sheet="Data"/>
   </cacheSource>
@@ -770,11 +783,6 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" count="0"/>
     </cacheField>
   </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -1015,8 +1023,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="4101" applyNumberFormats="1" applyBorderFormats="1" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="1" applyWidthHeightFormats="1" dataCaption="Data" missingCaption="null" showMissing="1" preserveFormatting="1" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" updatedVersion="3" indent="1" showMemberPropertyTips="1">
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" autoFormatId="4101" applyNumberFormats="1" applyBorderFormats="1" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="1" applyWidthHeightFormats="1" dataCaption="Data" missingCaption="null" showMissing="1" preserveFormatting="1" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" updatedVersion="3" indent="1" showMemberPropertyTips="1">
   <location ref="B3:J55" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" showAll="0" insertBlankRow="1">
@@ -1573,23 +1581,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="B3:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="11.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="11.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
     <col min="6" max="9" width="10.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="13.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="13.5"/>
-    <row r="3" spans="2:10" ht="15.75">
+    <row r="2" ht="13.5" thickBot="1"/>
+    <row r="3" spans="2:10" ht="15.75" thickTop="1">
       <c r="B3" s="26" t="s">
         <v>44</v>
       </c>
@@ -1606,7 +1614,7 @@
     </row>
     <row r="4" spans="2:10" ht="15">
       <c r="B4" s="28" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>2</v>
@@ -1643,16 +1651,16 @@
         <v>5200</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" s="44">
         <v>5200</v>
@@ -1668,16 +1676,16 @@
         <v>4000</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" s="45">
         <v>4000</v>
@@ -1693,16 +1701,16 @@
         <v>2000</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" s="46">
         <v>2000</v>
@@ -1718,16 +1726,16 @@
         <v>500</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="46">
         <v>500</v>
@@ -1743,16 +1751,16 @@
         <v>1500</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" s="46">
         <v>1500</v>
@@ -1760,12 +1768,12 @@
     </row>
     <row r="10" spans="2:10" ht="12.75">
       <c r="B10" s="31"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10" ht="12.75">
       <c r="B11" s="31"/>
@@ -1777,16 +1785,16 @@
         <v>1200</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" s="45">
         <v>1200</v>
@@ -1802,16 +1810,16 @@
         <v>1200</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" s="46">
         <v>1200</v>
@@ -1819,12 +1827,12 @@
     </row>
     <row r="13" spans="2:10" ht="12.75">
       <c r="B13" s="31"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10" ht="12.75">
       <c r="B14" s="30" t="s">
@@ -1833,19 +1841,19 @@
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="44">
         <v>4200</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" s="44">
         <v>4200</v>
@@ -1858,19 +1866,19 @@
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="45">
         <v>4200</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="45">
         <v>4200</v>
@@ -1883,19 +1891,19 @@
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3">
         <v>500</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J16" s="46">
         <v>500</v>
@@ -1908,19 +1916,19 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3">
         <v>1500</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17" s="46">
         <v>1500</v>
@@ -1933,19 +1941,19 @@
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="3">
         <v>800</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J18" s="46">
         <v>800</v>
@@ -1958,19 +1966,19 @@
         <v>15</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3">
         <v>1400</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J19" s="46">
         <v>1400</v>
@@ -1978,12 +1986,12 @@
     </row>
     <row r="20" spans="2:10" ht="12.75">
       <c r="B20" s="31"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10" ht="12.75">
       <c r="B21" s="30" t="s">
@@ -1992,19 +2000,19 @@
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" s="44">
         <v>7700</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J21" s="44">
         <v>7700</v>
@@ -2017,19 +2025,19 @@
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" s="45">
         <v>900</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J22" s="45">
         <v>900</v>
@@ -2042,19 +2050,19 @@
         <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="3">
         <v>900</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J23" s="46">
         <v>900</v>
@@ -2062,12 +2070,12 @@
     </row>
     <row r="24" spans="2:10" ht="12.75">
       <c r="B24" s="31"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10" ht="12.75">
       <c r="B25" s="31"/>
@@ -2076,19 +2084,19 @@
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" s="45">
         <v>600</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J25" s="45">
         <v>600</v>
@@ -2101,19 +2109,19 @@
         <v>12</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" s="3">
         <v>600</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J26" s="46">
         <v>600</v>
@@ -2121,12 +2129,12 @@
     </row>
     <row r="27" spans="2:10" ht="12.75">
       <c r="B27" s="31"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10" ht="12.75">
       <c r="B28" s="31"/>
@@ -2135,19 +2143,19 @@
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" s="45">
         <v>6200</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" s="45">
         <v>6200</v>
@@ -2160,19 +2168,19 @@
         <v>12</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G29" s="3">
         <v>1600</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J29" s="46">
         <v>1600</v>
@@ -2185,19 +2193,19 @@
         <v>13</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30" s="3">
         <v>2500</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J30" s="46">
         <v>2500</v>
@@ -2210,19 +2218,19 @@
         <v>15</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="3">
         <v>2100</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J31" s="46">
         <v>2100</v>
@@ -2230,12 +2238,12 @@
     </row>
     <row r="32" spans="2:10" ht="12.75">
       <c r="B32" s="31"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="2:10" ht="12.75">
       <c r="B33" s="30" t="s">
@@ -2244,19 +2252,19 @@
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F33" s="44">
         <v>2150</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" s="44">
         <v>5600</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J33" s="44">
         <v>7750</v>
@@ -2269,19 +2277,19 @@
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F34" s="45">
         <v>2150</v>
       </c>
       <c r="G34" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" s="45">
         <v>1000</v>
       </c>
       <c r="I34" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J34" s="45">
         <v>3150</v>
@@ -2294,19 +2302,19 @@
         <v>12</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F35" s="3">
         <v>1650</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J35" s="46">
         <v>1650</v>
@@ -2319,19 +2327,19 @@
         <v>13</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F36" s="3">
         <v>500</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J36" s="46">
         <v>500</v>
@@ -2344,19 +2352,19 @@
         <v>14</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" s="3">
         <v>1000</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J37" s="46">
         <v>1000</v>
@@ -2364,12 +2372,12 @@
     </row>
     <row r="38" spans="2:10" ht="12.75">
       <c r="B38" s="31"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="2:10" ht="12.75">
       <c r="B39" s="31"/>
@@ -2378,19 +2386,19 @@
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" s="45">
         <v>4600</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J39" s="45">
         <v>4600</v>
@@ -2403,19 +2411,19 @@
         <v>14</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" s="3">
         <v>1500</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J40" s="46">
         <v>1500</v>
@@ -2428,19 +2436,19 @@
         <v>15</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" s="3">
         <v>3100</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J41" s="46">
         <v>3100</v>
@@ -2448,12 +2456,12 @@
     </row>
     <row r="42" spans="2:10" ht="12.75">
       <c r="B42" s="31"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="2:10" ht="12.75">
       <c r="B43" s="30" t="s">
@@ -2462,16 +2470,16 @@
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I43" s="44">
         <v>3500</v>
@@ -2487,16 +2495,16 @@
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G44" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I44" s="45">
         <v>3500</v>
@@ -2512,16 +2520,16 @@
         <v>12</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I45" s="3">
         <v>1000</v>
@@ -2537,16 +2545,16 @@
         <v>13</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I46" s="3">
         <v>1200</v>
@@ -2562,16 +2570,16 @@
         <v>14</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I47" s="3">
         <v>1300</v>
@@ -2582,12 +2590,12 @@
     </row>
     <row r="48" spans="2:10" ht="12.75">
       <c r="B48" s="31"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
     </row>
     <row r="49" spans="2:10" ht="12.75">
       <c r="B49" s="30" t="s">
@@ -2596,16 +2604,16 @@
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I49" s="44">
         <v>3900</v>
@@ -2621,16 +2629,16 @@
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G50" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I50" s="45">
         <v>3900</v>
@@ -2646,16 +2654,16 @@
         <v>12</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I51" s="3">
         <v>1500</v>
@@ -2671,16 +2679,16 @@
         <v>13</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I52" s="3">
         <v>1400</v>
@@ -2696,16 +2704,16 @@
         <v>14</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I53" s="3">
         <v>1000</v>
@@ -2714,43 +2722,43 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="13.5">
+    <row r="54" spans="2:10" ht="13.5" thickBot="1">
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-    </row>
-    <row r="55" spans="2:10" ht="16.5">
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+    </row>
+    <row r="55" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B55" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C55" s="40"/>
       <c r="D55" s="40"/>
-      <c r="E55" s="47">
+      <c r="E55" s="48">
         <v>5200</v>
       </c>
-      <c r="F55" s="47">
+      <c r="F55" s="48">
         <v>6350</v>
       </c>
-      <c r="G55" s="47">
+      <c r="G55" s="48">
         <v>7700</v>
       </c>
-      <c r="H55" s="47">
+      <c r="H55" s="48">
         <v>5600</v>
       </c>
-      <c r="I55" s="47">
+      <c r="I55" s="48">
         <v>7400</v>
       </c>
-      <c r="J55" s="48">
+      <c r="J55" s="49">
         <v>32250</v>
       </c>
     </row>
-    <row r="56" ht="13.5"/>
+    <row r="56" ht="13.5" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -2758,7 +2766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -3372,8 +3380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -3391,16 +3399,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" ht="23.25" customHeight="1">
-      <c r="A5" s="49" t="s">
-        <v>41</v>
+      <c r="A5" s="50" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
